--- a/data/trans_orig/P41A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P41A_R-Estudios-trans_orig.xlsx
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6841</v>
+        <v>6820</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001488384692309144</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.005224262033766504</v>
+        <v>0.005208495339609211</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6852</v>
+        <v>6841</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0008335038603204734</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.002930138179116093</v>
+        <v>0.002925840808300603</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>18987</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11746</v>
+        <v>11777</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28286</v>
+        <v>27762</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01845481277966175</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0114171489082944</v>
+        <v>0.01144718334443712</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02749306778991055</v>
+        <v>0.02698349548553866</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -828,19 +828,19 @@
         <v>23414</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15091</v>
+        <v>15040</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34146</v>
+        <v>34057</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01788061893235802</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01152495461645794</v>
+        <v>0.0114855765402323</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02607647374812048</v>
+        <v>0.02600885147778486</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>43</v>
@@ -849,19 +849,19 @@
         <v>42401</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>31849</v>
+        <v>31488</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>56734</v>
+        <v>57703</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01813326097200548</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01362061512563704</v>
+        <v>0.0134661690469404</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02426293445403987</v>
+        <v>0.02467741946818103</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>47968</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>35369</v>
+        <v>35802</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>63788</v>
+        <v>64682</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04662347425186784</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03437811051101428</v>
+        <v>0.03479877477721104</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06200076174408346</v>
+        <v>0.0628692875743835</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>46</v>
@@ -899,19 +899,19 @@
         <v>48138</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>35100</v>
+        <v>35436</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>62990</v>
+        <v>63282</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03676216680070905</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02680491528330813</v>
+        <v>0.02706169713809167</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04810418720670404</v>
+        <v>0.04832687048406299</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>90</v>
@@ -920,19 +920,19 @@
         <v>96106</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>77285</v>
+        <v>77543</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>118502</v>
+        <v>115575</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04110108620876326</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03305192458801202</v>
+        <v>0.03316232952809788</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05067911689687814</v>
+        <v>0.04942729630235416</v>
       </c>
     </row>
     <row r="7">
@@ -949,19 +949,19 @@
         <v>157737</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>137855</v>
+        <v>134330</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>183864</v>
+        <v>182714</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1533165667415881</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1339915733670419</v>
+        <v>0.1305654891584347</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1787107351593877</v>
+        <v>0.1775937718161145</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>121</v>
@@ -970,19 +970,19 @@
         <v>123518</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>102629</v>
+        <v>103864</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>146251</v>
+        <v>144072</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09432781710212526</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07837532970312225</v>
+        <v>0.07931860001816431</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1116886676466732</v>
+        <v>0.1100243730820871</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>272</v>
@@ -991,19 +991,19 @@
         <v>281255</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>251220</v>
+        <v>250175</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>313027</v>
+        <v>313853</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1202825327354402</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1074376541179565</v>
+        <v>0.1069908605659656</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1338704768533426</v>
+        <v>0.134223540663069</v>
       </c>
     </row>
     <row r="8">
@@ -1020,19 +1020,19 @@
         <v>20068</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11889</v>
+        <v>12222</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>31858</v>
+        <v>31105</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01950512063372327</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0115561199413458</v>
+        <v>0.01187988005160919</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03096482863557676</v>
+        <v>0.03023364327231449</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>19</v>
@@ -1041,19 +1041,19 @@
         <v>19614</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12658</v>
+        <v>11281</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>31846</v>
+        <v>29807</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01497884696829379</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.009666550913151269</v>
+        <v>0.008614896156749385</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0243199846375752</v>
+        <v>0.02276274448962995</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>37</v>
@@ -1062,19 +1062,19 @@
         <v>39682</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>26620</v>
+        <v>28144</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>52105</v>
+        <v>54272</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01697038173692012</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01138423059385864</v>
+        <v>0.01203612437273267</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02228323187276357</v>
+        <v>0.02320998779773516</v>
       </c>
     </row>
     <row r="9">
@@ -1138,19 +1138,19 @@
         <v>784074</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>756255</v>
+        <v>755729</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>810620</v>
+        <v>812260</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.762100025593159</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7350608443822979</v>
+        <v>0.7345495022733761</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.787902628974991</v>
+        <v>0.7894964362670986</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1075</v>
@@ -1159,19 +1159,19 @@
         <v>1092820</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1065404</v>
+        <v>1067984</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1121271</v>
+        <v>1119327</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8345621655042047</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.813624989558096</v>
+        <v>0.8155958845087453</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8562896463071266</v>
+        <v>0.8548053217576135</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1877</v>
@@ -1180,19 +1180,19 @@
         <v>1876894</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1837271</v>
+        <v>1839865</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1917591</v>
+        <v>1920725</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8026792344865504</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7857341084650883</v>
+        <v>0.7868435633551421</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8200842158848406</v>
+        <v>0.8214243138997183</v>
       </c>
     </row>
     <row r="11">
@@ -1284,19 +1284,19 @@
         <v>9578</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4735</v>
+        <v>4918</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16865</v>
+        <v>17404</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.005668604370072518</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.002802386847720865</v>
+        <v>0.002910770036904351</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.009981522089525021</v>
+        <v>0.01030040148683029</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -1305,19 +1305,19 @@
         <v>9746</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4885</v>
+        <v>4880</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16741</v>
+        <v>17729</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.006174939903478682</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0030951336250381</v>
+        <v>0.003091717361641644</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01060712713395817</v>
+        <v>0.01123348849706031</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>20</v>
@@ -1326,19 +1326,19 @@
         <v>19323</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>12417</v>
+        <v>12000</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>30078</v>
+        <v>27947</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.005913146291816769</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.003799590875335317</v>
+        <v>0.003672068632548705</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.009204218458930918</v>
+        <v>0.00855196832580985</v>
       </c>
     </row>
     <row r="13">
@@ -1355,19 +1355,19 @@
         <v>85192</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>68004</v>
+        <v>68688</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>105056</v>
+        <v>107172</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05042150792805068</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04024835631406321</v>
+        <v>0.04065319159478339</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06217799913865803</v>
+        <v>0.06343006670714441</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>72</v>
@@ -1376,19 +1376,19 @@
         <v>73871</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56745</v>
+        <v>57925</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>91410</v>
+        <v>90840</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04680544454994872</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03595433990416441</v>
+        <v>0.03670208417495496</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05791835350140642</v>
+        <v>0.05755709563981302</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>151</v>
@@ -1397,19 +1397,19 @@
         <v>159063</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>134788</v>
+        <v>134526</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>184157</v>
+        <v>184875</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04867507887204223</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04124651914035401</v>
+        <v>0.0411662576331189</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0563539711289316</v>
+        <v>0.05657366003067667</v>
       </c>
     </row>
     <row r="14">
@@ -1426,19 +1426,19 @@
         <v>208030</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>183302</v>
+        <v>183459</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>238300</v>
+        <v>239278</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1231238272750255</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.108488278213161</v>
+        <v>0.1085809016331941</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1410391015516264</v>
+        <v>0.1416177528476588</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>203</v>
@@ -1447,19 +1447,19 @@
         <v>207588</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>178935</v>
+        <v>181286</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>235311</v>
+        <v>235192</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1315293598304711</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1133747317416313</v>
+        <v>0.1148641892843214</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1490949553036159</v>
+        <v>0.1490197213740982</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>400</v>
@@ -1468,19 +1468,19 @@
         <v>415618</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>377961</v>
+        <v>375299</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>457235</v>
+        <v>452959</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1271833983475216</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1156599390551351</v>
+        <v>0.1148455133940297</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1399187643477458</v>
+        <v>0.138610203701655</v>
       </c>
     </row>
     <row r="15">
@@ -1497,19 +1497,19 @@
         <v>704954</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>663788</v>
+        <v>663954</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>746396</v>
+        <v>748430</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4172307622119843</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3928666802026208</v>
+        <v>0.3929644741881895</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4417582162197779</v>
+        <v>0.4429624718341028</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>521</v>
@@ -1518,19 +1518,19 @@
         <v>527224</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>492091</v>
+        <v>491176</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>567335</v>
+        <v>564449</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3340541214508724</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3117935331010677</v>
+        <v>0.3112138951511645</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.359468521197301</v>
+        <v>0.3576401437695507</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1209</v>
@@ -1539,19 +1539,19 @@
         <v>1232178</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1181295</v>
+        <v>1182621</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1286966</v>
+        <v>1295070</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3770594247608611</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3614885319095648</v>
+        <v>0.3618944664301453</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3938250676634255</v>
+        <v>0.3963051346982521</v>
       </c>
     </row>
     <row r="16">
@@ -1568,19 +1568,19 @@
         <v>27269</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17503</v>
+        <v>17603</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39258</v>
+        <v>40442</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01613903291327829</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01035949715087132</v>
+        <v>0.01041832885092049</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0232352912390355</v>
+        <v>0.02393566491495217</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>44</v>
@@ -1589,19 +1589,19 @@
         <v>44218</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31252</v>
+        <v>32606</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>57843</v>
+        <v>57954</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02801712672987454</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01980140403111739</v>
+        <v>0.0206596964242937</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03664978878343521</v>
+        <v>0.03672008656828215</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>70</v>
@@ -1610,19 +1610,19 @@
         <v>71487</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>56617</v>
+        <v>55648</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>90188</v>
+        <v>89683</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02187572666066123</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01732530224645816</v>
+        <v>0.01702883476084884</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02759835442803463</v>
+        <v>0.02744390082607749</v>
       </c>
     </row>
     <row r="17">
@@ -1686,19 +1686,19 @@
         <v>654579</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>616585</v>
+        <v>612640</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>691820</v>
+        <v>696737</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3874162653015887</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.364929384331739</v>
+        <v>0.3625943413437344</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4094573612801444</v>
+        <v>0.4123677063311545</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>696</v>
@@ -1707,19 +1707,19 @@
         <v>715613</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>669718</v>
+        <v>674218</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>753964</v>
+        <v>753568</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4534190075353546</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4243391856256732</v>
+        <v>0.4271908201356405</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4777186183256552</v>
+        <v>0.4774673419887927</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1341</v>
@@ -1728,19 +1728,19 @@
         <v>1370192</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1316888</v>
+        <v>1316084</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1428409</v>
+        <v>1426992</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.419293225067097</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.402981648615518</v>
+        <v>0.4027355762074009</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4371081614192439</v>
+        <v>0.4366745250050201</v>
       </c>
     </row>
     <row r="19">
@@ -1832,19 +1832,19 @@
         <v>4777</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1815</v>
+        <v>1809</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12219</v>
+        <v>11870</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.008736250589792631</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003318709229688304</v>
+        <v>0.003308148115613592</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02234380428445946</v>
+        <v>0.0217057315729077</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1853,19 +1853,19 @@
         <v>6850</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2833</v>
+        <v>2540</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14337</v>
+        <v>14484</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01447317977824766</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005985502299762679</v>
+        <v>0.005365612300358185</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03029092011142061</v>
+        <v>0.03060308493380908</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -1874,19 +1874,19 @@
         <v>11628</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5971</v>
+        <v>5868</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>20470</v>
+        <v>21531</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01139787663754514</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005852845083503628</v>
+        <v>0.005752125771280393</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02006597879080869</v>
+        <v>0.0211056223243418</v>
       </c>
     </row>
     <row r="21">
@@ -1903,19 +1903,19 @@
         <v>33626</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>23571</v>
+        <v>23100</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>46177</v>
+        <v>46408</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06148990164916161</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04310311762779811</v>
+        <v>0.04224237588776203</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08444164896514378</v>
+        <v>0.08486244843341963</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -1924,19 +1924,19 @@
         <v>10263</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4982</v>
+        <v>5289</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18502</v>
+        <v>18061</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02168333207025721</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01052561992192604</v>
+        <v>0.01117543037121753</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03909215116467676</v>
+        <v>0.03816030279017898</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>44</v>
@@ -1945,19 +1945,19 @@
         <v>43889</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>32826</v>
+        <v>33533</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>57702</v>
+        <v>58172</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04302179807275729</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.032177850495857</v>
+        <v>0.03287029087313727</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05656182167842225</v>
+        <v>0.0570231048586461</v>
       </c>
     </row>
     <row r="22">
@@ -1974,19 +1974,19 @@
         <v>74698</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>60382</v>
+        <v>58977</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>93859</v>
+        <v>91875</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.136596250904463</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1104161438475549</v>
+        <v>0.1078468717590935</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1716343997675575</v>
+        <v>0.1680052459195507</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>85</v>
@@ -1995,19 +1995,19 @@
         <v>88309</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>72431</v>
+        <v>72681</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>104192</v>
+        <v>106698</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1865826561904778</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.153035850754129</v>
+        <v>0.1535648584509946</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.220141933232016</v>
+        <v>0.2254371567095565</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>157</v>
@@ -2016,19 +2016,19 @@
         <v>163007</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>140079</v>
+        <v>140186</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>186251</v>
+        <v>188054</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1597872497772589</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.137311634597842</v>
+        <v>0.1374165768328454</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1825716653945866</v>
+        <v>0.1843398523722981</v>
       </c>
     </row>
     <row r="23">
@@ -2045,19 +2045,19 @@
         <v>218983</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>196025</v>
+        <v>194859</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>242629</v>
+        <v>240404</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4004390662729641</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3584577547779551</v>
+        <v>0.3563259443857221</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4436807098878991</v>
+        <v>0.4396113523520866</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>163</v>
@@ -2066,19 +2066,19 @@
         <v>171916</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>151699</v>
+        <v>151975</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>192921</v>
+        <v>194317</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3632322227985464</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3205163729350413</v>
+        <v>0.3211003646280075</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4076124737460614</v>
+        <v>0.4105617826404201</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>372</v>
@@ -2087,19 +2087,19 @@
         <v>390898</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>359664</v>
+        <v>362165</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>422133</v>
+        <v>424657</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3831770955403552</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3525598916387473</v>
+        <v>0.3550107558516933</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4137948696826377</v>
+        <v>0.416268299922337</v>
       </c>
     </row>
     <row r="24">
@@ -2116,19 +2116,19 @@
         <v>14409</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7276</v>
+        <v>7579</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24768</v>
+        <v>25612</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0263481771557628</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01330568175317536</v>
+        <v>0.01385995728857616</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04529123778061102</v>
+        <v>0.04683567516861908</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -2137,19 +2137,19 @@
         <v>4569</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1017</v>
+        <v>1000</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11723</v>
+        <v>12472</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.009653661127915351</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.002148263341173922</v>
+        <v>0.002112484995116906</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02476825774662566</v>
+        <v>0.02635162482990541</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>17</v>
@@ -2158,19 +2158,19 @@
         <v>18978</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10373</v>
+        <v>11385</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>29873</v>
+        <v>29677</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01860282119010778</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01016853174038784</v>
+        <v>0.01115979026498304</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02928316030154783</v>
+        <v>0.02909116275121691</v>
       </c>
     </row>
     <row r="25">
@@ -2234,19 +2234,19 @@
         <v>200363</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>176689</v>
+        <v>178800</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>225452</v>
+        <v>224723</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3663903534278559</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.323098936709954</v>
+        <v>0.326960732232739</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4122686664580268</v>
+        <v>0.410935905011492</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>182</v>
@@ -2255,19 +2255,19 @@
         <v>191389</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>171192</v>
+        <v>169830</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>212994</v>
+        <v>212992</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4043749480345555</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3617022844820391</v>
+        <v>0.3588250547522133</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4500229857862963</v>
+        <v>0.4500189897506378</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>373</v>
@@ -2276,19 +2276,19 @@
         <v>391751</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>357595</v>
+        <v>358969</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>421393</v>
+        <v>422266</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3840131587819756</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3505311761904701</v>
+        <v>0.3518780075880568</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4130696901021549</v>
+        <v>0.4139251551004961</v>
       </c>
     </row>
     <row r="27">
@@ -2380,19 +2380,19 @@
         <v>14355</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>7570</v>
+        <v>7706</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>23641</v>
+        <v>24770</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.004396287396976971</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.002318407899241498</v>
+        <v>0.002359860774983325</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.007240209289427283</v>
+        <v>0.007585998629573529</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>18</v>
@@ -2401,19 +2401,19 @@
         <v>18545</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>11145</v>
+        <v>11599</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>28517</v>
+        <v>28576</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.005517604864312998</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.003315883876562329</v>
+        <v>0.00345097471651055</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.008484510737544998</v>
+        <v>0.008502194791220163</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>32</v>
@@ -2422,19 +2422,19 @@
         <v>32900</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>22607</v>
+        <v>23216</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>45984</v>
+        <v>45865</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.004965044985400517</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003411750518429645</v>
+        <v>0.003503557157273054</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.006939675297035065</v>
+        <v>0.006921679480207818</v>
       </c>
     </row>
     <row r="29">
@@ -2451,19 +2451,19 @@
         <v>137805</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>115237</v>
+        <v>115692</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>161267</v>
+        <v>161541</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0422030776544729</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0352914508787979</v>
+        <v>0.03543071655466393</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04938827892730063</v>
+        <v>0.04947223355546392</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>105</v>
@@ -2472,19 +2472,19 @@
         <v>107548</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>88906</v>
+        <v>86455</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>130784</v>
+        <v>128816</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03199861468677974</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02645213958927388</v>
+        <v>0.02572291445344041</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03891220917624737</v>
+        <v>0.03832672334342672</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>238</v>
@@ -2493,19 +2493,19 @@
         <v>245353</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>217368</v>
+        <v>217219</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>278454</v>
+        <v>279012</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0370271431687192</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03280383144002005</v>
+        <v>0.03278139714063766</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04202250436207076</v>
+        <v>0.04210669586054969</v>
       </c>
     </row>
     <row r="30">
@@ -2522,19 +2522,19 @@
         <v>330696</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>298160</v>
+        <v>298679</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>369076</v>
+        <v>367858</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1012762808770724</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09131203878523367</v>
+        <v>0.09147090760670393</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.113030179341267</v>
+        <v>0.112657052108573</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>334</v>
@@ -2543,19 +2543,19 @@
         <v>344035</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>312770</v>
+        <v>312771</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>382102</v>
+        <v>380309</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1023605091016613</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09305824332557953</v>
+        <v>0.09305876856432925</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1136867586299024</v>
+        <v>0.1131530882206378</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>647</v>
@@ -2564,19 +2564,19 @@
         <v>674731</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>626034</v>
+        <v>628870</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>729761</v>
+        <v>724327</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1018262259624575</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09447717161764473</v>
+        <v>0.09490513057583572</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1101309619134255</v>
+        <v>0.1093108962969054</v>
       </c>
     </row>
     <row r="31">
@@ -2593,19 +2593,19 @@
         <v>1081673</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1025232</v>
+        <v>1028755</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1134703</v>
+        <v>1136444</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3312640823272583</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3139787982584193</v>
+        <v>0.3150578955127126</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3475044051372566</v>
+        <v>0.3480376965975115</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>805</v>
@@ -2614,19 +2614,19 @@
         <v>822658</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>774923</v>
+        <v>776286</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>874027</v>
+        <v>872973</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2447652837213346</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2305626709152299</v>
+        <v>0.2309682406070735</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2600488601060706</v>
+        <v>0.259735490965779</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1853</v>
@@ -2635,19 +2635,19 @@
         <v>1904332</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1834599</v>
+        <v>1831490</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1975727</v>
+        <v>1976479</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2873899347020378</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2768662660114473</v>
+        <v>0.2763971939868483</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2981644987323762</v>
+        <v>0.2982780409824152</v>
       </c>
     </row>
     <row r="32">
@@ -2664,19 +2664,19 @@
         <v>61745</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>48400</v>
+        <v>48262</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>81197</v>
+        <v>81827</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01890940598775125</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01482252478543181</v>
+        <v>0.01478030427789421</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02486659099074142</v>
+        <v>0.02505976410151065</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>67</v>
@@ -2685,19 +2685,19 @@
         <v>68401</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>52908</v>
+        <v>53228</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>87107</v>
+        <v>87375</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.020351464217854</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01574174534848995</v>
+        <v>0.01583700255716562</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02591703797939124</v>
+        <v>0.02599670659720221</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>124</v>
@@ -2706,19 +2706,19 @@
         <v>130146</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>110558</v>
+        <v>109368</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>155224</v>
+        <v>156316</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01964085054757615</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01668477935439929</v>
+        <v>0.01650508549697539</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02342537981154603</v>
+        <v>0.02359031627321434</v>
       </c>
     </row>
     <row r="33">
@@ -2782,19 +2782,19 @@
         <v>1639015</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1587431</v>
+        <v>1580854</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1700006</v>
+        <v>1697913</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5019508657564682</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4861532621728573</v>
+        <v>0.4841389648117163</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5206294088144907</v>
+        <v>0.5199883450010823</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1953</v>
@@ -2803,19 +2803,19 @@
         <v>1999822</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1943505</v>
+        <v>1945714</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>2058088</v>
+        <v>2057656</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5950065234080574</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5782504911505431</v>
+        <v>0.5789077115676583</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6123422718538758</v>
+        <v>0.6122137411073098</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3591</v>
@@ -2824,19 +2824,19 @@
         <v>3638837</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3553741</v>
+        <v>3552948</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3713991</v>
+        <v>3717846</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5491508006338088</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.536308507329209</v>
+        <v>0.5361888666338477</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5604924578188258</v>
+        <v>0.561074283818336</v>
       </c>
     </row>
     <row r="35">
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5539</v>
+        <v>5248</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001070266083280763</v>
@@ -3179,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.005695650442423129</v>
+        <v>0.005396200969737838</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -3188,19 +3188,19 @@
         <v>6003</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2041</v>
+        <v>2886</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11984</v>
+        <v>12345</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004494391264730262</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001528041750757561</v>
+        <v>0.002160937750107682</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.008971839397163436</v>
+        <v>0.009241964598500569</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -3209,19 +3209,19 @@
         <v>7044</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2978</v>
+        <v>2915</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13167</v>
+        <v>14118</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003051684004324101</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001290109323351166</v>
+        <v>0.001262651184219091</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005704310878729951</v>
+        <v>0.006116193829858944</v>
       </c>
     </row>
     <row r="5">
@@ -3238,19 +3238,19 @@
         <v>41237</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>29411</v>
+        <v>30456</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>53984</v>
+        <v>54307</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04239991466396989</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0302407256590424</v>
+        <v>0.03131489752760395</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05550633610250107</v>
+        <v>0.055839102994189</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>54</v>
@@ -3259,19 +3259,19 @@
         <v>57211</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>44335</v>
+        <v>42681</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>75682</v>
+        <v>73264</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04283096477314009</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03319156101682386</v>
+        <v>0.03195368237651913</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05665943079842824</v>
+        <v>0.05484952002629215</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>95</v>
@@ -3280,19 +3280,19 @@
         <v>98447</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>81227</v>
+        <v>80726</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>120415</v>
+        <v>120937</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04264934783767646</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03518912058920864</v>
+        <v>0.03497203322780407</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05216636586077524</v>
+        <v>0.05239218186555881</v>
       </c>
     </row>
     <row r="6">
@@ -3309,19 +3309,19 @@
         <v>40259</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28679</v>
+        <v>28299</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>53910</v>
+        <v>53384</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04139420508330826</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02948828463570446</v>
+        <v>0.02909702312818304</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05543046955911121</v>
+        <v>0.05488986333971596</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>54</v>
@@ -3330,19 +3330,19 @@
         <v>57034</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>44763</v>
+        <v>42696</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>75052</v>
+        <v>72022</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04269911251466507</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03351220017611831</v>
+        <v>0.03196430039642627</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05618769101016915</v>
+        <v>0.0539199629405917</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>93</v>
@@ -3351,19 +3351,19 @@
         <v>97293</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>79693</v>
+        <v>80259</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>116756</v>
+        <v>118921</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04214930801698619</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03452438673293281</v>
+        <v>0.03476960298397325</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05058086406417135</v>
+        <v>0.05151881188467306</v>
       </c>
     </row>
     <row r="7">
@@ -3380,19 +3380,19 @@
         <v>123982</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>104442</v>
+        <v>103761</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>144998</v>
+        <v>146561</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1274792718659619</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1073875673475094</v>
+        <v>0.106687293719819</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1490871484533384</v>
+        <v>0.1506942632160403</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>84</v>
@@ -3401,19 +3401,19 @@
         <v>91344</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>73607</v>
+        <v>73480</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>112685</v>
+        <v>113565</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06838520442068677</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05510614980670191</v>
+        <v>0.05501090926476419</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0843624423528143</v>
+        <v>0.08502106952453312</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>203</v>
@@ -3422,19 +3422,19 @@
         <v>215326</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>187638</v>
+        <v>186985</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>244751</v>
+        <v>246844</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09328366333571378</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08128849263380847</v>
+        <v>0.08100549739614382</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1060307810474987</v>
+        <v>0.1069379193614535</v>
       </c>
     </row>
     <row r="8">
@@ -3451,19 +3451,19 @@
         <v>10559</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5267</v>
+        <v>5207</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18524</v>
+        <v>19108</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01085656534746346</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005415641429454922</v>
+        <v>0.005354264056108248</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01904678827230097</v>
+        <v>0.01964735236494426</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -3472,19 +3472,19 @@
         <v>12554</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6348</v>
+        <v>6441</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>21099</v>
+        <v>20818</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.009398572250286034</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004752345474174692</v>
+        <v>0.004821776808631157</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01579587551468401</v>
+        <v>0.01558539086123861</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>22</v>
@@ -3493,19 +3493,19 @@
         <v>23113</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15311</v>
+        <v>14908</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>33623</v>
+        <v>36604</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01001287725242661</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006633159692405852</v>
+        <v>0.00645857828906142</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0145660311637889</v>
+        <v>0.01585750924092641</v>
       </c>
     </row>
     <row r="9">
@@ -3569,19 +3569,19 @@
         <v>755491</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>728281</v>
+        <v>731134</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>780011</v>
+        <v>783603</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7767997769560158</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7488218776319945</v>
+        <v>0.7517551261036155</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8020112688986941</v>
+        <v>0.8057039991678033</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1035</v>
@@ -3590,19 +3590,19 @@
         <v>1111583</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1081716</v>
+        <v>1083482</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1137583</v>
+        <v>1137750</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8321917547764918</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.809831561941514</v>
+        <v>0.8111541772924975</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8516569652740251</v>
+        <v>0.8517821492968507</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1731</v>
@@ -3611,19 +3611,19 @@
         <v>1867073</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1831065</v>
+        <v>1830793</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1904287</v>
+        <v>1907116</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8088531195528729</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7932538085743508</v>
+        <v>0.7931359057438373</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8249749865957978</v>
+        <v>0.8262005474573674</v>
       </c>
     </row>
     <row r="11">
@@ -3715,19 +3715,19 @@
         <v>11899</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6657</v>
+        <v>5837</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19570</v>
+        <v>19617</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.006061458885851151</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003391097121725724</v>
+        <v>0.002973622603104706</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.009969197893929608</v>
+        <v>0.00999305791265081</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>27</v>
@@ -3736,19 +3736,19 @@
         <v>27837</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18676</v>
+        <v>18440</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>40429</v>
+        <v>41285</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01584532843992476</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01063068811279667</v>
+        <v>0.01049604728181986</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02301290830119909</v>
+        <v>0.02349965525793886</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>39</v>
@@ -3757,19 +3757,19 @@
         <v>39736</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>29282</v>
+        <v>28917</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>54289</v>
+        <v>53489</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01068216102544478</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007871744848978618</v>
+        <v>0.007773658421030666</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01459419651811061</v>
+        <v>0.01437920374120456</v>
       </c>
     </row>
     <row r="13">
@@ -3786,19 +3786,19 @@
         <v>146353</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>122762</v>
+        <v>121849</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>172214</v>
+        <v>170331</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07455334103560665</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06253598336026252</v>
+        <v>0.06207088530092048</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0877272771245107</v>
+        <v>0.08676815566579998</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>139</v>
@@ -3807,19 +3807,19 @@
         <v>155108</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>131316</v>
+        <v>130870</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>181726</v>
+        <v>183180</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08828932701055402</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0747464712243032</v>
+        <v>0.0744924889865638</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1034406565602961</v>
+        <v>0.1042682386730899</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>276</v>
@@ -3828,19 +3828,19 @@
         <v>301461</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>267819</v>
+        <v>267463</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>335721</v>
+        <v>336761</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08104053911537265</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07199660135483403</v>
+        <v>0.07190097111058436</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09025051633820277</v>
+        <v>0.0905302258443562</v>
       </c>
     </row>
     <row r="14">
@@ -3857,19 +3857,19 @@
         <v>215055</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>187052</v>
+        <v>185783</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>241514</v>
+        <v>241853</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1095509721332544</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09528582833434282</v>
+        <v>0.09463935505033101</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.123028976316888</v>
+        <v>0.1232017843907346</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>239</v>
@@ -3878,19 +3878,19 @@
         <v>257820</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>227243</v>
+        <v>229250</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>288569</v>
+        <v>292558</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1467544822726094</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1293492167079214</v>
+        <v>0.1304915861865613</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.164256853174853</v>
+        <v>0.1665273050132253</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>450</v>
@@ -3899,19 +3899,19 @@
         <v>472876</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>431647</v>
+        <v>432880</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>516377</v>
+        <v>515834</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1271213555026582</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1160379648715621</v>
+        <v>0.1163693699548143</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.138815559529441</v>
+        <v>0.1386696698817291</v>
       </c>
     </row>
     <row r="15">
@@ -3928,19 +3928,19 @@
         <v>731178</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>687339</v>
+        <v>690587</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>776164</v>
+        <v>775041</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3724679407238177</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3501358180799953</v>
+        <v>0.3517906128543674</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3953840331187704</v>
+        <v>0.3948123402445937</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>380</v>
@@ -3949,19 +3949,19 @@
         <v>393842</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>359818</v>
+        <v>360344</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>430095</v>
+        <v>431635</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2241797590106247</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2048128744631629</v>
+        <v>0.205112166209882</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2448151412112594</v>
+        <v>0.2456916272717382</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1078</v>
@@ -3970,19 +3970,19 @@
         <v>1125020</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1065562</v>
+        <v>1068539</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1185598</v>
+        <v>1188652</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3024347585833922</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2864507832576959</v>
+        <v>0.287251145421352</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3187196858489796</v>
+        <v>0.3195406228128166</v>
       </c>
     </row>
     <row r="16">
@@ -3999,19 +3999,19 @@
         <v>33983</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22420</v>
+        <v>23188</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47719</v>
+        <v>48650</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01731097494281635</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01142109556467795</v>
+        <v>0.01181204675822774</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02430860109837911</v>
+        <v>0.02478255948862756</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -4020,19 +4020,19 @@
         <v>35136</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23613</v>
+        <v>24384</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48369</v>
+        <v>50358</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.019999665610203</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01344072908634715</v>
+        <v>0.01387954352842588</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02753242181454793</v>
+        <v>0.02866459659601441</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>63</v>
@@ -4041,19 +4041,19 @@
         <v>69118</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>53520</v>
+        <v>53849</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>89688</v>
+        <v>89296</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01858078323807578</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0143876642070903</v>
+        <v>0.01447609224302357</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02411034593617761</v>
+        <v>0.02400509960115523</v>
       </c>
     </row>
     <row r="17">
@@ -4117,19 +4117,19 @@
         <v>824595</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>782717</v>
+        <v>780125</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>872193</v>
+        <v>872505</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4200553122786537</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.398722320602612</v>
+        <v>0.397402133134607</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4443019672133328</v>
+        <v>0.444460787346093</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>817</v>
@@ -4138,19 +4138,19 @@
         <v>887071</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>849151</v>
+        <v>844050</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>934043</v>
+        <v>932057</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5049314376560842</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.483347109216055</v>
+        <v>0.4804435019186322</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5316685137014941</v>
+        <v>0.5305380330419442</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1583</v>
@@ -4159,19 +4159,19 @@
         <v>1711666</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1648027</v>
+        <v>1647452</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1773817</v>
+        <v>1773358</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4601404025350563</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4430324453319972</v>
+        <v>0.4428779959217342</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4768482549010173</v>
+        <v>0.4767249046172172</v>
       </c>
     </row>
     <row r="19">
@@ -4263,19 +4263,19 @@
         <v>8643</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4013</v>
+        <v>3843</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16188</v>
+        <v>15711</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01799820017470804</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008356829883174537</v>
+        <v>0.008001534577315316</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03370897812131329</v>
+        <v>0.03271563099756606</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -4284,19 +4284,19 @@
         <v>6781</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2375</v>
+        <v>2841</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15318</v>
+        <v>14332</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01478446335335685</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005177455711038446</v>
+        <v>0.006193473997708906</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03340037848601366</v>
+        <v>0.03125051495507781</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -4305,19 +4305,19 @@
         <v>15424</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>9424</v>
+        <v>8669</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>25571</v>
+        <v>25405</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01642829575177773</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01003816282728566</v>
+        <v>0.009233044560731644</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02723619162234076</v>
+        <v>0.02705908172892553</v>
       </c>
     </row>
     <row r="21">
@@ -4334,19 +4334,19 @@
         <v>37251</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>26125</v>
+        <v>25891</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>50941</v>
+        <v>52427</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0775684511011112</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05440200715941127</v>
+        <v>0.05391409876816083</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.106076868561464</v>
+        <v>0.1091711678511596</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>24</v>
@@ -4355,19 +4355,19 @@
         <v>27962</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>18648</v>
+        <v>18258</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>39790</v>
+        <v>41820</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0609686764905499</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04065979455533617</v>
+        <v>0.03981058112201294</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08675811985967052</v>
+        <v>0.09118499924586812</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>58</v>
@@ -4376,19 +4376,19 @@
         <v>65213</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>49672</v>
+        <v>50009</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>84390</v>
+        <v>85593</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0694594922692521</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05290672888105397</v>
+        <v>0.05326606897793725</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08988572777753941</v>
+        <v>0.09116668205781739</v>
       </c>
     </row>
     <row r="22">
@@ -4405,19 +4405,19 @@
         <v>65387</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>50250</v>
+        <v>50279</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>81154</v>
+        <v>82698</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1361574272818732</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1046382023173948</v>
+        <v>0.1046990621533043</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1689908665510139</v>
+        <v>0.1722060145776367</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -4426,19 +4426,19 @@
         <v>75739</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>59260</v>
+        <v>60021</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>92043</v>
+        <v>94130</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1651411757329648</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1292110717360251</v>
+        <v>0.1308704672954791</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2006917251781565</v>
+        <v>0.2052410823505323</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>128</v>
@@ -4447,19 +4447,19 @@
         <v>141125</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>119449</v>
+        <v>119209</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>166766</v>
+        <v>165207</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1503159341590286</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1272281312334277</v>
+        <v>0.1269717831471437</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1776265877170973</v>
+        <v>0.1759652728933703</v>
       </c>
     </row>
     <row r="23">
@@ -4476,19 +4476,19 @@
         <v>212996</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>190564</v>
+        <v>190035</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>235851</v>
+        <v>235882</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4435304590958601</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3968204992954921</v>
+        <v>0.3957173604536282</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4911233929071576</v>
+        <v>0.4911883065671835</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>149</v>
@@ -4497,19 +4497,19 @@
         <v>160016</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>138959</v>
+        <v>139183</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>181245</v>
+        <v>181820</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.348898412136517</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3029858046441003</v>
+        <v>0.303475241909903</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3951860822423092</v>
+        <v>0.3964404280631671</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>347</v>
@@ -4518,19 +4518,19 @@
         <v>373011</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>343479</v>
+        <v>343065</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>404518</v>
+        <v>405589</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.397302881253951</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3658473040972932</v>
+        <v>0.3654066360657521</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.430861269312317</v>
+        <v>0.4320024532934537</v>
       </c>
     </row>
     <row r="24">
@@ -4547,19 +4547,19 @@
         <v>3929</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12591</v>
+        <v>13598</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.008180857431361099</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.001557513301216854</v>
+        <v>0.001559633898850008</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02621966159623691</v>
+        <v>0.02831472649248859</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -4568,19 +4568,19 @@
         <v>8803</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4033</v>
+        <v>3880</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>19244</v>
+        <v>18369</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01919429698231929</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.00879362742793021</v>
+        <v>0.008459066513904616</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04195960634423531</v>
+        <v>0.04005139326044418</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>10</v>
@@ -4589,19 +4589,19 @@
         <v>12732</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6309</v>
+        <v>6456</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>23517</v>
+        <v>21956</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01356090204106733</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.006719935439996056</v>
+        <v>0.006876283754954658</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02504843236661564</v>
+        <v>0.02338632487810867</v>
       </c>
     </row>
     <row r="25">
@@ -4665,19 +4665,19 @@
         <v>152023</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>130281</v>
+        <v>130869</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>173571</v>
+        <v>174115</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3165646049150863</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2712893437848188</v>
+        <v>0.2725141997605267</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3614341591003195</v>
+        <v>0.3625673590444931</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>157</v>
@@ -4686,19 +4686,19 @@
         <v>179331</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>157885</v>
+        <v>157615</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>201605</v>
+        <v>202117</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3910129753042922</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3442534885100432</v>
+        <v>0.3436649838098992</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4395801820077331</v>
+        <v>0.4406955334680354</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>291</v>
@@ -4707,19 +4707,19 @@
         <v>331354</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>302203</v>
+        <v>297576</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>364236</v>
+        <v>361809</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3529324945249233</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3218834076429762</v>
+        <v>0.3169547548815257</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.387955969636131</v>
+        <v>0.3853706219543756</v>
       </c>
     </row>
     <row r="27">
@@ -4811,19 +4811,19 @@
         <v>21583</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>13573</v>
+        <v>13660</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>31935</v>
+        <v>32375</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.006318519463725985</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.003973563910766273</v>
+        <v>0.003999069661914995</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.009349013288542932</v>
+        <v>0.00947777176500016</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>39</v>
@@ -4832,19 +4832,19 @@
         <v>40621</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>29542</v>
+        <v>30150</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>54882</v>
+        <v>54682</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01143880956769758</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.008319016274955715</v>
+        <v>0.008490129589085595</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01545461364194555</v>
+        <v>0.01539820382321928</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>61</v>
@@ -4853,19 +4853,19 @@
         <v>62204</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>47628</v>
+        <v>48959</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>78530</v>
+        <v>80899</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.008928387885983274</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006836149139139795</v>
+        <v>0.007027271876519431</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01127169586407797</v>
+        <v>0.01161162108836463</v>
       </c>
     </row>
     <row r="29">
@@ -4882,19 +4882,19 @@
         <v>224840</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>195809</v>
+        <v>196713</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>257243</v>
+        <v>259312</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06582245652011699</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05732343422524886</v>
+        <v>0.05758817485443359</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07530834325604048</v>
+        <v>0.07591418655774376</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>217</v>
@@ -4903,19 +4903,19 @@
         <v>240281</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>210002</v>
+        <v>209820</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>271772</v>
+        <v>274764</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06766231040954983</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05913606728485625</v>
+        <v>0.05908457081630997</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07653026170629579</v>
+        <v>0.07737262743132477</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>429</v>
@@ -4924,19 +4924,19 @@
         <v>465121</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>423386</v>
+        <v>421683</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>510216</v>
+        <v>506443</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06676025036970248</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0607699459177148</v>
+        <v>0.06052551174594932</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07323283127335481</v>
+        <v>0.07269133471055272</v>
       </c>
     </row>
     <row r="30">
@@ -4953,19 +4953,19 @@
         <v>320701</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>286465</v>
+        <v>290392</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>358574</v>
+        <v>360561</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09388581790184233</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.083863260555936</v>
+        <v>0.08501296828481786</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1049732612321769</v>
+        <v>0.1055549351288684</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>362</v>
@@ -4974,19 +4974,19 @@
         <v>390594</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>353060</v>
+        <v>351850</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>429164</v>
+        <v>429730</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1099900182121401</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09942056926507123</v>
+        <v>0.09907998646356468</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1208514355967617</v>
+        <v>0.1210107160472478</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>671</v>
@@ -4995,19 +4995,19 @@
         <v>711295</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>660431</v>
+        <v>663601</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>768345</v>
+        <v>764532</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1020943066792558</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09479375453259645</v>
+        <v>0.09524870028443705</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1102829788577255</v>
+        <v>0.1097355630713004</v>
       </c>
     </row>
     <row r="31">
@@ -5024,19 +5024,19 @@
         <v>1068156</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1013180</v>
+        <v>1012481</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1121613</v>
+        <v>1123270</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3127049208237359</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2966105029622825</v>
+        <v>0.2964059470220354</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3283544076469824</v>
+        <v>0.3288394597293053</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>613</v>
@@ -5045,19 +5045,19 @@
         <v>645202</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>598424</v>
+        <v>600277</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>691126</v>
+        <v>693665</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1816869454268158</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1685144542441886</v>
+        <v>0.1690361148932324</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1946191037656389</v>
+        <v>0.1953339455284606</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1628</v>
@@ -5066,19 +5066,19 @@
         <v>1713358</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1640183</v>
+        <v>1640544</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1790175</v>
+        <v>1800183</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2459236116023549</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2354205113204077</v>
+        <v>0.2354723592096174</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2569493050395953</v>
+        <v>0.2583857540090246</v>
       </c>
     </row>
     <row r="32">
@@ -5095,19 +5095,19 @@
         <v>48470</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>35259</v>
+        <v>35256</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>63911</v>
+        <v>65908</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01418968224723284</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0103222307646056</v>
+        <v>0.01032132933079314</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01871021157980002</v>
+        <v>0.01929469875677574</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>51</v>
@@ -5116,19 +5116,19 @@
         <v>56493</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>41826</v>
+        <v>43420</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>73009</v>
+        <v>73091</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01590818799221992</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01177811121920345</v>
+        <v>0.01222696558097784</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02055907851043437</v>
+        <v>0.02058217259808316</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>95</v>
@@ -5137,19 +5137,19 @@
         <v>104963</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>85155</v>
+        <v>84544</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>126487</v>
+        <v>128162</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01506562360724106</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01222250818753414</v>
+        <v>0.01213483103687452</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01815505810595667</v>
+        <v>0.0183954599023294</v>
       </c>
     </row>
     <row r="33">
@@ -5213,19 +5213,19 @@
         <v>1732110</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1672434</v>
+        <v>1671880</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1794487</v>
+        <v>1792938</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.507078603043346</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4896085613735518</v>
+        <v>0.4894464259536478</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5253396793282586</v>
+        <v>0.5248862559879809</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2009</v>
@@ -5234,19 +5234,19 @@
         <v>2177984</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2118440</v>
+        <v>2117157</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>2237230</v>
+        <v>2239858</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6133137283915767</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5965463833194314</v>
+        <v>0.5961850839751663</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6299973549461126</v>
+        <v>0.630737383408208</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3605</v>
@@ -5255,19 +5255,19 @@
         <v>3910094</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3824694</v>
+        <v>3829381</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3992402</v>
+        <v>3996226</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5612278198554624</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5489700580497551</v>
+        <v>0.5496428426996256</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5730418164562714</v>
+        <v>0.5735905893053169</v>
       </c>
     </row>
     <row r="35">
@@ -5645,19 +5645,19 @@
         <v>13970</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7575</v>
+        <v>7619</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22678</v>
+        <v>23180</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01855811994197214</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01006250243770058</v>
+        <v>0.01012081680815892</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03012579711857183</v>
+        <v>0.0307929213460165</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -5666,19 +5666,19 @@
         <v>13319</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7648</v>
+        <v>7627</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22179</v>
+        <v>21910</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01340613116932024</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.007698359763476048</v>
+        <v>0.007676719892211008</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02232437590517911</v>
+        <v>0.02205440195211071</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -5687,19 +5687,19 @@
         <v>27289</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17926</v>
+        <v>18980</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38909</v>
+        <v>40891</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01562706483493601</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01026572005957534</v>
+        <v>0.01086910808499876</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02228184560874477</v>
+        <v>0.02341647328363542</v>
       </c>
     </row>
     <row r="6">
@@ -5716,19 +5716,19 @@
         <v>52851</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>39400</v>
+        <v>39695</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>68509</v>
+        <v>70340</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07020841843305119</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05233935165980638</v>
+        <v>0.05273161836704766</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09100884177816852</v>
+        <v>0.09344099886327752</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>35</v>
@@ -5737,19 +5737,19 @@
         <v>34462</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25140</v>
+        <v>23713</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>48686</v>
+        <v>47235</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03468913778699073</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02530574130429313</v>
+        <v>0.02386903184613809</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04900622365475132</v>
+        <v>0.04754532735212635</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>85</v>
@@ -5758,19 +5758,19 @@
         <v>87314</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>71671</v>
+        <v>70840</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>108032</v>
+        <v>107429</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05000088818987161</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0410430318024548</v>
+        <v>0.04056697669167785</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06186552566023806</v>
+        <v>0.06151986613437141</v>
       </c>
     </row>
     <row r="7">
@@ -5787,19 +5787,19 @@
         <v>84634</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68400</v>
+        <v>68468</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>104962</v>
+        <v>102369</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.112429647002382</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09086446046981947</v>
+        <v>0.09095380256931872</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.139433902561573</v>
+        <v>0.1359889532262994</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>66</v>
@@ -5808,19 +5808,19 @@
         <v>63909</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>49501</v>
+        <v>49569</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>78182</v>
+        <v>81466</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06432895784724091</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04982687882879525</v>
+        <v>0.04989482505956418</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07869662682941549</v>
+        <v>0.08200175390093166</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>147</v>
@@ -5829,19 +5829,19 @@
         <v>148543</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>126849</v>
+        <v>127761</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>172746</v>
+        <v>172992</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08506433686263117</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07264129068994875</v>
+        <v>0.07316355011452376</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09892447099905426</v>
+        <v>0.09906532265192035</v>
       </c>
     </row>
     <row r="8">
@@ -5858,19 +5858,19 @@
         <v>9254</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4644</v>
+        <v>4575</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17696</v>
+        <v>17500</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01229306484986671</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006169228211317412</v>
+        <v>0.006077406412976457</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02350835251101255</v>
+        <v>0.0232468992456071</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -5879,19 +5879,19 @@
         <v>8691</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3966</v>
+        <v>4189</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16563</v>
+        <v>17272</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.008748335020787496</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003992311051690189</v>
+        <v>0.004216923901852242</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01667181858503097</v>
+        <v>0.01738526476974113</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>17</v>
@@ -5900,19 +5900,19 @@
         <v>17945</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>11030</v>
+        <v>10566</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>29464</v>
+        <v>28328</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01027640702566149</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006316412943528264</v>
+        <v>0.006050765256591159</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01687278392549761</v>
+        <v>0.01622218610140487</v>
       </c>
     </row>
     <row r="9">
@@ -5976,19 +5976,19 @@
         <v>592065</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>569615</v>
+        <v>569078</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>614665</v>
+        <v>614697</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7865107497727279</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7566874187060888</v>
+        <v>0.7559743255571983</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8165337377906913</v>
+        <v>0.8165759568206622</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>768</v>
@@ -5997,19 +5997,19 @@
         <v>873085</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>852388</v>
+        <v>852653</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>891139</v>
+        <v>893339</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8788274381756607</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.857993966248723</v>
+        <v>0.8582605369926604</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8970004159912101</v>
+        <v>0.8992142835054736</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1375</v>
@@ -6018,19 +6018,19 @@
         <v>1465151</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1431382</v>
+        <v>1433098</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1493285</v>
+        <v>1493854</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8390313030868998</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8196935532099635</v>
+        <v>0.8206757716705894</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8551425649398238</v>
+        <v>0.8554683655069506</v>
       </c>
     </row>
     <row r="11">
@@ -6138,7 +6138,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6532</v>
+        <v>5672</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0009435464916760697</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.003306506508912827</v>
+        <v>0.002871345505016348</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -6159,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6552</v>
+        <v>5835</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0004605040658365295</v>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.001618718174962813</v>
+        <v>0.001441431888976953</v>
       </c>
     </row>
     <row r="13">
@@ -6185,19 +6185,19 @@
         <v>71463</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55349</v>
+        <v>54760</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90336</v>
+        <v>89897</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03448620515794112</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02671018093750535</v>
+        <v>0.02642578821904392</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04359375638326871</v>
+        <v>0.04338177578731096</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>91</v>
@@ -6206,19 +6206,19 @@
         <v>91943</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>74910</v>
+        <v>74514</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>111799</v>
+        <v>112954</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0465407622075104</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03791882439289321</v>
+        <v>0.03771839868508863</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05659176675144031</v>
+        <v>0.05717648297903478</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>157</v>
@@ -6227,19 +6227,19 @@
         <v>163406</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>140251</v>
+        <v>139559</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>189541</v>
+        <v>189717</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0403695109432493</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0346491456411885</v>
+        <v>0.03447825846912662</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0468261662178486</v>
+        <v>0.04686967202886812</v>
       </c>
     </row>
     <row r="14">
@@ -6256,19 +6256,19 @@
         <v>314791</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>281507</v>
+        <v>283052</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>348340</v>
+        <v>349183</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1519101877383773</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1358482725784698</v>
+        <v>0.1365938671205163</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1681000932999533</v>
+        <v>0.1685066090973265</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>371</v>
@@ -6277,19 +6277,19 @@
         <v>369012</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>338979</v>
+        <v>334394</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>406778</v>
+        <v>404159</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1867913334184525</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.17158903446081</v>
+        <v>0.169267782838618</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2059081697004418</v>
+        <v>0.2045826087903958</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>670</v>
@@ -6298,19 +6298,19 @@
         <v>683803</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>635116</v>
+        <v>637510</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>733403</v>
+        <v>735350</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1689341601111403</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1569059847102034</v>
+        <v>0.1574974564318245</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1811877144350522</v>
+        <v>0.1816689193951819</v>
       </c>
     </row>
     <row r="15">
@@ -6327,19 +6327,19 @@
         <v>652571</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>609912</v>
+        <v>611936</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>692440</v>
+        <v>698569</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3149139494349188</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2943277896504333</v>
+        <v>0.2953046387794521</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3341538919538501</v>
+        <v>0.337111489263757</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>438</v>
@@ -6348,19 +6348,19 @@
         <v>436431</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>399817</v>
+        <v>405199</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>474360</v>
+        <v>475445</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2209181376177372</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2023845708251863</v>
+        <v>0.2051088675082581</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2401179270810056</v>
+        <v>0.2406671384817657</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1058</v>
@@ -6369,19 +6369,19 @@
         <v>1089001</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1034501</v>
+        <v>1037596</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1150655</v>
+        <v>1150316</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2690386757782628</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2555744462526339</v>
+        <v>0.2563390503379573</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2842702310883201</v>
+        <v>0.2841866052168301</v>
       </c>
     </row>
     <row r="16">
@@ -6398,19 +6398,19 @@
         <v>30663</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20153</v>
+        <v>21129</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44650</v>
+        <v>43660</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0147970928276116</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009725409936503329</v>
+        <v>0.01019624110456931</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02154676463448913</v>
+        <v>0.02106936497748567</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>33</v>
@@ -6419,19 +6419,19 @@
         <v>32429</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23189</v>
+        <v>22441</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>44788</v>
+        <v>44323</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01641509957723761</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01173826722294283</v>
+        <v>0.01135954942573666</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02267120828320955</v>
+        <v>0.02243578464483244</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>62</v>
@@ -6440,19 +6440,19 @@
         <v>63091</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>48092</v>
+        <v>46456</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>80062</v>
+        <v>79057</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01558677165459782</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01188127631796928</v>
+        <v>0.01147688619296755</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01977937402561002</v>
+        <v>0.01953113466221061</v>
       </c>
     </row>
     <row r="17">
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5355</v>
+        <v>5345</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0005172744493297546</v>
@@ -6481,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.002584425581431588</v>
+        <v>0.002579376739691119</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5362</v>
+        <v>5371</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0002648152550333881</v>
@@ -6515,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.001324575416312795</v>
+        <v>0.001326950434621842</v>
       </c>
     </row>
     <row r="18">
@@ -6532,19 +6532,19 @@
         <v>1001659</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>958797</v>
+        <v>956698</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1051615</v>
+        <v>1048814</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4833752903918214</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4626912009642951</v>
+        <v>0.4616778463343962</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5074823371677775</v>
+        <v>0.5061309603768088</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>961</v>
@@ -6553,19 +6553,19 @@
         <v>1043853</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>995217</v>
+        <v>997747</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1088526</v>
+        <v>1087159</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5283911206873861</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.503771754859727</v>
+        <v>0.5050528165054626</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5510044935924842</v>
+        <v>0.5503122947091764</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1894</v>
@@ -6574,19 +6574,19 @@
         <v>2045512</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1979905</v>
+        <v>1973736</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>2111825</v>
+        <v>2103210</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5053455621918798</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4891372070335281</v>
+        <v>0.4876130981782915</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5217280551955543</v>
+        <v>0.5195997753967474</v>
       </c>
     </row>
     <row r="19">
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5758</v>
+        <v>4692</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002101644412085304</v>
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0105202958430162</v>
+        <v>0.008573474202782582</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5783</v>
+        <v>7311</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001052169230718946</v>
@@ -6724,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.005289313627956365</v>
+        <v>0.006687774114612683</v>
       </c>
     </row>
     <row r="21">
@@ -6741,19 +6741,19 @@
         <v>21606</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13399</v>
+        <v>13354</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>33251</v>
+        <v>33329</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03957651271245532</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02454292728451954</v>
+        <v>0.02446121674434873</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06090872118827265</v>
+        <v>0.06105146773878378</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>27</v>
@@ -6762,19 +6762,19 @@
         <v>29554</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>20395</v>
+        <v>19405</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>44085</v>
+        <v>42549</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05399692893717923</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03726254266556807</v>
+        <v>0.03545413943295474</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08054674241420705</v>
+        <v>0.07774084275665416</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>46</v>
@@ -6783,19 +6783,19 @@
         <v>51160</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>37406</v>
+        <v>37814</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>68387</v>
+        <v>68519</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04679596342379617</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.034215563740606</v>
+        <v>0.034589057021257</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06255358078697812</v>
+        <v>0.06267483780360653</v>
       </c>
     </row>
     <row r="22">
@@ -6812,19 +6812,19 @@
         <v>94041</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>77340</v>
+        <v>76136</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>114705</v>
+        <v>115278</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1722600027159013</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1416692391941021</v>
+        <v>0.1394631262531407</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2101121589956258</v>
+        <v>0.211161625024596</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>117</v>
@@ -6833,19 +6833,19 @@
         <v>117832</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>99296</v>
+        <v>100120</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>138447</v>
+        <v>139081</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2152870022337727</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.181421156472803</v>
+        <v>0.1829264403365782</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.252953423496847</v>
+        <v>0.2541103796034042</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>203</v>
@@ -6854,19 +6854,19 @@
         <v>211872</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>185932</v>
+        <v>186643</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>241669</v>
+        <v>242233</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1938010801324865</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1700729042397951</v>
+        <v>0.1707235273880913</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2210566163134289</v>
+        <v>0.2215723823263599</v>
       </c>
     </row>
     <row r="23">
@@ -6883,19 +6883,19 @@
         <v>197362</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>175802</v>
+        <v>175315</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>222068</v>
+        <v>225499</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3615195982433882</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3220277827940126</v>
+        <v>0.3211353463392533</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4067753418140938</v>
+        <v>0.4130593413160267</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>156</v>
@@ -6904,19 +6904,19 @@
         <v>156574</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>136866</v>
+        <v>137376</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>178521</v>
+        <v>179431</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2860714711193957</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2500645754126525</v>
+        <v>0.2509948913347915</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3261699341316499</v>
+        <v>0.3278340615370552</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>340</v>
@@ -6925,19 +6925,19 @@
         <v>353936</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>322954</v>
+        <v>321563</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>386350</v>
+        <v>386466</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3237471770770172</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2954077957204151</v>
+        <v>0.2941361393815385</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3533965504060465</v>
+        <v>0.3535031262647106</v>
       </c>
     </row>
     <row r="24">
@@ -6954,19 +6954,19 @@
         <v>5801</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2142</v>
+        <v>1900</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13505</v>
+        <v>12711</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01062558980671142</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.003924341711578471</v>
+        <v>0.003479772013978566</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02473822460413327</v>
+        <v>0.02328267396167624</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -6975,19 +6975,19 @@
         <v>8636</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4262</v>
+        <v>3703</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17586</v>
+        <v>18456</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01577823554471018</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.007787882797214479</v>
+        <v>0.006765241383879368</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03212999368959988</v>
+        <v>0.03372123373739187</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>13</v>
@@ -6996,19 +6996,19 @@
         <v>14437</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>7943</v>
+        <v>8094</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>24650</v>
+        <v>25572</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01320521520439613</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.007265082675652553</v>
+        <v>0.007403442205992815</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0225477785437667</v>
+        <v>0.02339113889522752</v>
       </c>
     </row>
     <row r="25">
@@ -7072,19 +7072,19 @@
         <v>227114</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>203112</v>
+        <v>202865</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>247938</v>
+        <v>251162</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4160182965215438</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3720515987364227</v>
+        <v>0.3716002939427833</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4541638088681609</v>
+        <v>0.4600688150621213</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>215</v>
@@ -7093,19 +7093,19 @@
         <v>233579</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>209134</v>
+        <v>209433</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>254703</v>
+        <v>256687</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4267647177528568</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3821020223741318</v>
+        <v>0.3826487863722211</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4653611107783057</v>
+        <v>0.4689861826044874</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>421</v>
@@ -7114,19 +7114,19 @@
         <v>460693</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>428698</v>
+        <v>424852</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>493249</v>
+        <v>494445</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4213983949315852</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.392132586192645</v>
+        <v>0.3886152640216006</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4511783175986185</v>
+        <v>0.4522717899111134</v>
       </c>
     </row>
     <row r="27">
@@ -7231,19 +7231,19 @@
         <v>3014</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>9206</v>
+        <v>7829</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0008572270558000018</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.000261615061720027</v>
+        <v>0.0002625398478611323</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.002618036586907948</v>
+        <v>0.002226409619602813</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3</v>
@@ -7255,16 +7255,16 @@
         <v>921</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>9034</v>
+        <v>7625</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0004376625489152314</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0001337639550556023</v>
+        <v>0.0001336834698239586</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.001311658943814969</v>
+        <v>0.001107098489898285</v>
       </c>
     </row>
     <row r="29">
@@ -7281,19 +7281,19 @@
         <v>107039</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>85310</v>
+        <v>86934</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>130538</v>
+        <v>129867</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03175361280370035</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02530775975827062</v>
+        <v>0.02578955485899448</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03872492610679369</v>
+        <v>0.03852586358940269</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>132</v>
@@ -7302,19 +7302,19 @@
         <v>134815</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>114309</v>
+        <v>112931</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>157830</v>
+        <v>157974</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03833980449117574</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0325081408394429</v>
+        <v>0.03211614856506201</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04488490655360809</v>
+        <v>0.04492605892163724</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>230</v>
@@ -7323,19 +7323,19 @@
         <v>241854</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>212978</v>
+        <v>213845</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>274074</v>
+        <v>275433</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0351162335027107</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03092351671293631</v>
+        <v>0.03104944038119392</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03979440752210347</v>
+        <v>0.03999174348681408</v>
       </c>
     </row>
     <row r="30">
@@ -7352,19 +7352,19 @@
         <v>461683</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>424670</v>
+        <v>420272</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>503988</v>
+        <v>504683</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1369606699234911</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1259804711481747</v>
+        <v>0.1246759484173868</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1495107788845263</v>
+        <v>0.1497168271522218</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>523</v>
@@ -7373,19 +7373,19 @@
         <v>521306</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>479043</v>
+        <v>485392</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>563694</v>
+        <v>566516</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.148253316001756</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1362342315779688</v>
+        <v>0.1380396354752768</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.160307818757161</v>
+        <v>0.1611103345132041</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>958</v>
@@ -7394,19 +7394,19 @@
         <v>982989</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>931524</v>
+        <v>924373</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1043850</v>
+        <v>1045486</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1427261998763442</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1352536600685254</v>
+        <v>0.1342153378901105</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1515628718562038</v>
+        <v>0.1518004285820331</v>
       </c>
     </row>
     <row r="31">
@@ -7423,19 +7423,19 @@
         <v>934567</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>882078</v>
+        <v>882112</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>990184</v>
+        <v>986090</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.277244098410189</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2616731264385758</v>
+        <v>0.2616832154446627</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2937433768055362</v>
+        <v>0.2925287943571352</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>660</v>
@@ -7444,19 +7444,19 @@
         <v>656913</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>611802</v>
+        <v>611421</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>704006</v>
+        <v>703698</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1868182679428527</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1739892046051829</v>
+        <v>0.1738808171915675</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2002109398563084</v>
+        <v>0.2001234135216772</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1545</v>
@@ -7465,19 +7465,19 @@
         <v>1591480</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1524200</v>
+        <v>1525870</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1669553</v>
+        <v>1656352</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2310766341633018</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2213079195019493</v>
+        <v>0.2215502929291564</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2424125881416107</v>
+        <v>0.2404957999741582</v>
       </c>
     </row>
     <row r="32">
@@ -7494,19 +7494,19 @@
         <v>45717</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>34861</v>
+        <v>32986</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>63230</v>
+        <v>61647</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.013562328743016</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0103415931501398</v>
+        <v>0.009785602631980845</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01875746797732325</v>
+        <v>0.0182880296466453</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>49</v>
@@ -7515,19 +7515,19 @@
         <v>49756</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>35881</v>
+        <v>36254</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>62924</v>
+        <v>67477</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0141498788896186</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01020420685170971</v>
+        <v>0.0103101479278537</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01789474961849791</v>
+        <v>0.01918959899212584</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>92</v>
@@ -7536,19 +7536,19 @@
         <v>95473</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>77631</v>
+        <v>76810</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>115686</v>
+        <v>117864</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01386230608628549</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0112717072282917</v>
+        <v>0.01115246720173509</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01679720495442043</v>
+        <v>0.01711341313172524</v>
       </c>
     </row>
     <row r="33">
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>5180</v>
+        <v>5359</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.0003179865499015146</v>
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.001536787932479663</v>
+        <v>0.001589704587833539</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>5360</v>
+        <v>6460</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.000155636559885419</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.0007783200508251197</v>
+        <v>0.0009380320646719015</v>
       </c>
     </row>
     <row r="34">
@@ -7628,19 +7628,19 @@
         <v>1820838</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1764359</v>
+        <v>1763180</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1875195</v>
+        <v>1881634</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.540161303569702</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5234063201617581</v>
+        <v>0.5230567270590689</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5562864626096835</v>
+        <v>0.5581967126548923</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1944</v>
@@ -7649,19 +7649,19 @@
         <v>2150518</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2090159</v>
+        <v>2094271</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>2204511</v>
+        <v>2206403</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6115815056187969</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5944163514486486</v>
+        <v>0.5955856694394871</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6269366855309572</v>
+        <v>0.6274745723947553</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3690</v>
@@ -7670,19 +7670,19 @@
         <v>3971356</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3883548</v>
+        <v>3890797</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>4052667</v>
+        <v>4052065</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5766253272625571</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5638760248353487</v>
+        <v>0.5649284430677676</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5884313925995447</v>
+        <v>0.5883439965573907</v>
       </c>
     </row>
     <row r="35">
@@ -8013,19 +8013,19 @@
         <v>4650</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1438</v>
+        <v>954</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13034</v>
+        <v>14440</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01112506192388973</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003439594284722111</v>
+        <v>0.002283137139949233</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03118129696642054</v>
+        <v>0.03454402685946222</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -8034,19 +8034,19 @@
         <v>3254</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1165</v>
+        <v>1295</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7041</v>
+        <v>7778</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.006415919086694884</v>
+        <v>0.006415919086694885</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002296993279873708</v>
+        <v>0.002552993090351546</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01388475965704798</v>
+        <v>0.01533873760209956</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -8055,19 +8055,19 @@
         <v>7904</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3671</v>
+        <v>3579</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16063</v>
+        <v>16234</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.008543708860362074</v>
+        <v>0.008543708860362072</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003968329328687765</v>
+        <v>0.003868406187034967</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01736335081416007</v>
+        <v>0.01754770125628934</v>
       </c>
     </row>
     <row r="5">
@@ -8084,19 +8084,19 @@
         <v>11251</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5574</v>
+        <v>5554</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20175</v>
+        <v>19868</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02691516683692108</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01333548613437529</v>
+        <v>0.01328806886809168</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.048264274866558</v>
+        <v>0.04753027630121857</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -8105,19 +8105,19 @@
         <v>6281</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3226</v>
+        <v>3448</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11182</v>
+        <v>11160</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01238688535868906</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.006362452194948882</v>
+        <v>0.006800035221559005</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02205053905159291</v>
+        <v>0.02200793141801157</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>20</v>
@@ -8126,19 +8126,19 @@
         <v>17532</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10261</v>
+        <v>10446</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>26491</v>
+        <v>25772</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.01895137699274511</v>
+        <v>0.0189513769927451</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01109131081844476</v>
+        <v>0.01129216241043137</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02863517565714597</v>
+        <v>0.02785872522029325</v>
       </c>
     </row>
     <row r="6">
@@ -8155,19 +8155,19 @@
         <v>19394</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11046</v>
+        <v>10226</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32325</v>
+        <v>31885</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.04639765305267569</v>
+        <v>0.0463976530526757</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02642520789881725</v>
+        <v>0.02446339097183823</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07733234853208271</v>
+        <v>0.07627931541409647</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>14</v>
@@ -8176,19 +8176,19 @@
         <v>11787</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6522</v>
+        <v>6613</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20475</v>
+        <v>20063</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02324398816195532</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01286136348846085</v>
+        <v>0.01304001309924812</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04037638410569681</v>
+        <v>0.03956366382651239</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>28</v>
@@ -8197,19 +8197,19 @@
         <v>31181</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>21049</v>
+        <v>20706</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>47324</v>
+        <v>46664</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.03370579258807437</v>
+        <v>0.03370579258807436</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02275276725249763</v>
+        <v>0.02238237081956074</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05115490972110184</v>
+        <v>0.0504413047373434</v>
       </c>
     </row>
     <row r="7">
@@ -8226,19 +8226,19 @@
         <v>35981</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25409</v>
+        <v>25183</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52334</v>
+        <v>50861</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.08607951595853076</v>
+        <v>0.08607951595853079</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06078625314679197</v>
+        <v>0.06024665983639971</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1251997721917399</v>
+        <v>0.1216772840386147</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -8247,19 +8247,19 @@
         <v>21063</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14587</v>
+        <v>14667</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29659</v>
+        <v>31267</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04153561701710921</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02876537261981104</v>
+        <v>0.02892248034469016</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05848609399175297</v>
+        <v>0.06165769365285537</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -8268,19 +8268,19 @@
         <v>57044</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43602</v>
+        <v>43154</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>74462</v>
+        <v>74125</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.06166243328146366</v>
+        <v>0.06166243328146365</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04713177430468168</v>
+        <v>0.0466478180014309</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08048960348325984</v>
+        <v>0.08012523958628893</v>
       </c>
     </row>
     <row r="8">
@@ -8297,19 +8297,19 @@
         <v>5361</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1957</v>
+        <v>1967</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11310</v>
+        <v>11980</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01282524353446924</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004682397300541217</v>
+        <v>0.004705934180186101</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02705771893663024</v>
+        <v>0.02865960824159959</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -8318,19 +8318,19 @@
         <v>1762</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4785</v>
+        <v>5767</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.003474396695996453</v>
+        <v>0.003474396695996454</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.000955533896935026</v>
+        <v>0.0009581961348498772</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.009435029315095555</v>
+        <v>0.01137150478919353</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -8339,19 +8339,19 @@
         <v>7123</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3067</v>
+        <v>3124</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14027</v>
+        <v>14110</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.00769950452684803</v>
+        <v>0.007699504526848028</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003315268460698808</v>
+        <v>0.003377388117583775</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0151629838236094</v>
+        <v>0.01525280042812259</v>
       </c>
     </row>
     <row r="9">
@@ -8415,19 +8415,19 @@
         <v>341365</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>324278</v>
+        <v>323492</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>357553</v>
+        <v>357790</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8166573586935134</v>
+        <v>0.8166573586935135</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7757783060208451</v>
+        <v>0.7738988725766277</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8553843826663623</v>
+        <v>0.8559496259197679</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>832</v>
@@ -8436,19 +8436,19 @@
         <v>462958</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>449909</v>
+        <v>450632</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>472626</v>
+        <v>473153</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.912943193679555</v>
+        <v>0.9129431936795552</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8872114814645192</v>
+        <v>0.8886357783674276</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9320084486726042</v>
+        <v>0.9330476416359621</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1294</v>
@@ -8457,19 +8457,19 @@
         <v>804323</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>782185</v>
+        <v>782219</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>823708</v>
+        <v>823928</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8694371837505067</v>
+        <v>0.8694371837505066</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8455061873066436</v>
+        <v>0.8455432814219331</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8903911873333836</v>
+        <v>0.8906289861452679</v>
       </c>
     </row>
     <row r="11">
@@ -8561,19 +8561,19 @@
         <v>19893</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11956</v>
+        <v>11555</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>34955</v>
+        <v>34231</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0129147457863879</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007762204947483503</v>
+        <v>0.007501884728455452</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02269304714716143</v>
+        <v>0.02222296864759295</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>31</v>
@@ -8582,19 +8582,19 @@
         <v>24116</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>16437</v>
+        <v>16765</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>37244</v>
+        <v>36749</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01659191253827518</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01130857691819024</v>
+        <v>0.01153399746438666</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02562416558805243</v>
+        <v>0.02528308198159607</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>49</v>
@@ -8603,19 +8603,19 @@
         <v>44009</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>32675</v>
+        <v>32756</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>61070</v>
+        <v>60502</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.01470000009977215</v>
+        <v>0.01470000009977216</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01091414883765202</v>
+        <v>0.01094114656565888</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02039858741006464</v>
+        <v>0.02020912365987753</v>
       </c>
     </row>
     <row r="13">
@@ -8632,19 +8632,19 @@
         <v>76469</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>58925</v>
+        <v>59057</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>95655</v>
+        <v>95636</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04964475552238034</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03825455692443007</v>
+        <v>0.03834029595435132</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06210013507131947</v>
+        <v>0.06208828289377866</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>112</v>
@@ -8653,19 +8653,19 @@
         <v>83235</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>69840</v>
+        <v>68713</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>99704</v>
+        <v>100317</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05726529813381599</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04804977198012873</v>
+        <v>0.04727435540585431</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06859648563931567</v>
+        <v>0.06901769420245404</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>179</v>
@@ -8674,19 +8674,19 @@
         <v>159704</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>137932</v>
+        <v>136879</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>184784</v>
+        <v>186528</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05334450793649414</v>
+        <v>0.05334450793649415</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0460723040548161</v>
+        <v>0.04572046423251527</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0617218909944825</v>
+        <v>0.06230428819441631</v>
       </c>
     </row>
     <row r="14">
@@ -8703,19 +8703,19 @@
         <v>139620</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>113376</v>
+        <v>116022</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>168038</v>
+        <v>168541</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0906429690292984</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07360505865067206</v>
+        <v>0.07532318916897422</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1090923339327469</v>
+        <v>0.1094186598177364</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>201</v>
@@ -8724,19 +8724,19 @@
         <v>162909</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>142315</v>
+        <v>142874</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>186309</v>
+        <v>188204</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1120813573618559</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09791250788136759</v>
+        <v>0.09829716374841012</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1281805071139289</v>
+        <v>0.129484198522951</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>309</v>
@@ -8745,19 +8745,19 @@
         <v>302529</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>267861</v>
+        <v>265054</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>337993</v>
+        <v>337750</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1010512474200082</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08947138657127768</v>
+        <v>0.08853377696129804</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1128969850433275</v>
+        <v>0.1128157531305058</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>450760</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>412411</v>
+        <v>412610</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>496908</v>
+        <v>495512</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2926387945678404</v>
+        <v>0.2926387945678403</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2677422333959883</v>
+        <v>0.2678712038262084</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3225989770560524</v>
+        <v>0.3216923029517525</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>351</v>
@@ -8795,19 +8795,19 @@
         <v>291581</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>263423</v>
+        <v>263699</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>319642</v>
+        <v>322945</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2006070245645557</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1812346463976936</v>
+        <v>0.1814244303113749</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2199130545588387</v>
+        <v>0.2221856676057363</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>716</v>
@@ -8816,19 +8816,19 @@
         <v>742340</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>692538</v>
+        <v>688854</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>793549</v>
+        <v>795048</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.2479576241307298</v>
+        <v>0.2479576241307299</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.231322492374507</v>
+        <v>0.230091948006906</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2650625023772011</v>
+        <v>0.2655630961723302</v>
       </c>
     </row>
     <row r="16">
@@ -8845,19 +8845,19 @@
         <v>28145</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18854</v>
+        <v>18915</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46777</v>
+        <v>44659</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01827220546522579</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01224047951725912</v>
+        <v>0.01227955979602761</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03036829964557161</v>
+        <v>0.02899294606465324</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -8866,19 +8866,19 @@
         <v>19662</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13436</v>
+        <v>13323</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27548</v>
+        <v>28298</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01352713175584409</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009243858693222091</v>
+        <v>0.009166433580302202</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01895313394114968</v>
+        <v>0.01946897475544086</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>59</v>
@@ -8887,19 +8887,19 @@
         <v>47807</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35778</v>
+        <v>36939</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>65079</v>
+        <v>66395</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01596848527014567</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01195071296271438</v>
+        <v>0.01233854389925418</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02173783098850171</v>
+        <v>0.02217748980418252</v>
       </c>
     </row>
     <row r="17">
@@ -8963,19 +8963,19 @@
         <v>825441</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>779370</v>
+        <v>778851</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>868289</v>
+        <v>868520</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5358865296288673</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5059769689143719</v>
+        <v>0.5056398757334128</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5637042423237203</v>
+        <v>0.563854002162102</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1345</v>
@@ -8984,19 +8984,19 @@
         <v>871989</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>837509</v>
+        <v>836844</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>908112</v>
+        <v>905865</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5999272756456532</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.576204844776926</v>
+        <v>0.5757475753294343</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6247796188297023</v>
+        <v>0.6232339648363454</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2251</v>
@@ -9005,19 +9005,19 @@
         <v>1697430</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1645091</v>
+        <v>1639848</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1754179</v>
+        <v>1757349</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.5669781351428498</v>
+        <v>0.56697813514285</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5494957775903291</v>
+        <v>0.5477442204155154</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5859333010635435</v>
+        <v>0.5869922636475959</v>
       </c>
     </row>
     <row r="19">
@@ -9109,19 +9109,19 @@
         <v>12023</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6795</v>
+        <v>6940</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19516</v>
+        <v>19035</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02234194547130783</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01262690119023222</v>
+        <v>0.01289612227843976</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03626686890189</v>
+        <v>0.03537241835027596</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>31</v>
@@ -9130,19 +9130,19 @@
         <v>17408</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11737</v>
+        <v>11760</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25469</v>
+        <v>25177</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03167000380585348</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.021353372144062</v>
+        <v>0.02139479373740113</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04633392904056948</v>
+        <v>0.04580334862156328</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>45</v>
@@ -9151,19 +9151,19 @@
         <v>29431</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>21289</v>
+        <v>21147</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>40448</v>
+        <v>39965</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02705547366572461</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01957040407095926</v>
+        <v>0.01944014302285553</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03718289367766141</v>
+        <v>0.03673885771320058</v>
       </c>
     </row>
     <row r="21">
@@ -9180,19 +9180,19 @@
         <v>37634</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>26442</v>
+        <v>27631</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>51232</v>
+        <v>52815</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.06993504258056743</v>
+        <v>0.06993504258056742</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04913685700711998</v>
+        <v>0.05134616266697489</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09520419073557046</v>
+        <v>0.09814620071095573</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>46</v>
@@ -9201,19 +9201,19 @@
         <v>32758</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>24394</v>
+        <v>24840</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>42513</v>
+        <v>43264</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05959546660982398</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04437853842521366</v>
+        <v>0.04518966239348183</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07734198186561911</v>
+        <v>0.07870869139865957</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>79</v>
@@ -9222,19 +9222,19 @@
         <v>70392</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>55715</v>
+        <v>57712</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>86337</v>
+        <v>88066</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.06471038798380913</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05121745636794734</v>
+        <v>0.05305403179096882</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07936836181484395</v>
+        <v>0.08095727524046906</v>
       </c>
     </row>
     <row r="22">
@@ -9251,19 +9251,19 @@
         <v>44096</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31106</v>
+        <v>29449</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>60862</v>
+        <v>62959</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.08194236981865562</v>
+        <v>0.0819423698186556</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05780397553232948</v>
+        <v>0.0547248348300353</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1130986076618554</v>
+        <v>0.1169965829429433</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>109</v>
@@ -9272,19 +9272,19 @@
         <v>88507</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>72089</v>
+        <v>73189</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>105384</v>
+        <v>106131</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1610161450569951</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1311483023441268</v>
+        <v>0.1331497590224124</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1917206052428659</v>
+        <v>0.1930791811700779</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>142</v>
@@ -9293,19 +9293,19 @@
         <v>132602</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>110086</v>
+        <v>111785</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>155762</v>
+        <v>154504</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1218988597608943</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1011999431601525</v>
+        <v>0.1027616214741458</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1431895834235306</v>
+        <v>0.1420331442113466</v>
       </c>
     </row>
     <row r="23">
@@ -9322,19 +9322,19 @@
         <v>145844</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>122829</v>
+        <v>123640</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>168294</v>
+        <v>173719</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2710207596452117</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2282518176971056</v>
+        <v>0.2297584459255839</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3127378077196791</v>
+        <v>0.3228196226583627</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>127</v>
@@ -9343,19 +9343,19 @@
         <v>104360</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>87994</v>
+        <v>87724</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>122026</v>
+        <v>123070</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.189857914797003</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1600829415749735</v>
+        <v>0.1595930627221719</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2219967653870331</v>
+        <v>0.2238955161604459</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>244</v>
@@ -9364,19 +9364,19 @@
         <v>250205</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>223157</v>
+        <v>224180</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>282556</v>
+        <v>283972</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2300086493205671</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2051441689065091</v>
+        <v>0.2060844108865385</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.259748569716216</v>
+        <v>0.2610508978857013</v>
       </c>
     </row>
     <row r="24">
@@ -9393,19 +9393,19 @@
         <v>5331</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1238</v>
+        <v>1225</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15143</v>
+        <v>13175</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.009905837686648707</v>
+        <v>0.009905837686648706</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.002300031290080278</v>
+        <v>0.002277136947405519</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02814025179046556</v>
+        <v>0.02448247700941826</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -9414,19 +9414,19 @@
         <v>4556</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1814</v>
+        <v>1846</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9027</v>
+        <v>9340</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.008288027383524112</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.003300066735454092</v>
+        <v>0.003358206155749075</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01642246078735344</v>
+        <v>0.01699119151515586</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>11</v>
@@ -9435,19 +9435,19 @@
         <v>9886</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4994</v>
+        <v>5198</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>19102</v>
+        <v>18101</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.009088347679242232</v>
+        <v>0.009088347679242234</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.004590665856999446</v>
+        <v>0.004778559758312756</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01756003616585811</v>
+        <v>0.01664012376563269</v>
       </c>
     </row>
     <row r="25">
@@ -9467,7 +9467,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10229</v>
+        <v>10859</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.005657561343933526</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01900808616247123</v>
+        <v>0.02017856752325185</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10489</v>
+        <v>10483</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.002798759013386984</v>
@@ -9510,7 +9510,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.009642354145117354</v>
+        <v>0.009636459384754903</v>
       </c>
     </row>
     <row r="26">
@@ -9527,19 +9527,19 @@
         <v>290158</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>265690</v>
+        <v>266460</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>314587</v>
+        <v>316763</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5391964834536751</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4937275158900262</v>
+        <v>0.4951584060546762</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5845926641500013</v>
+        <v>0.5886374074403687</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>448</v>
@@ -9548,19 +9548,19 @@
         <v>302086</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>281270</v>
+        <v>280645</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>323912</v>
+        <v>322905</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.5495724423468002</v>
+        <v>0.5495724423468004</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5117022191528026</v>
+        <v>0.5105654610722564</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5892799341581647</v>
+        <v>0.5874476575903573</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>779</v>
@@ -9569,19 +9569,19 @@
         <v>592244</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>560090</v>
+        <v>561358</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>625662</v>
+        <v>628172</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5444395225763756</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5148811152473654</v>
+        <v>0.516046803081706</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5751600827371763</v>
+        <v>0.5774673224377487</v>
       </c>
     </row>
     <row r="27">
@@ -9673,19 +9673,19 @@
         <v>36566</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>25158</v>
+        <v>25270</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>53686</v>
+        <v>51973</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.01464718550318133</v>
+        <v>0.01464718550318132</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01007751563662168</v>
+        <v>0.01012240702456578</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02150490906096104</v>
+        <v>0.0208188706286811</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>67</v>
@@ -9694,19 +9694,19 @@
         <v>44778</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>34251</v>
+        <v>34780</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>58463</v>
+        <v>58931</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01783789546727347</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01364415434411624</v>
+        <v>0.01385506613854402</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02328938218634411</v>
+        <v>0.02347593597016567</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>103</v>
@@ -9715,19 +9715,19 @@
         <v>81344</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>63820</v>
+        <v>66267</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>100328</v>
+        <v>100762</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01624694083324704</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01274684152718771</v>
+        <v>0.01323562417588508</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02003862248248169</v>
+        <v>0.02012534795978332</v>
       </c>
     </row>
     <row r="29">
@@ -9744,19 +9744,19 @@
         <v>125354</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>104957</v>
+        <v>102413</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>151888</v>
+        <v>150287</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.0502126744709523</v>
+        <v>0.05021267447095229</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04204234667007625</v>
+        <v>0.04102327630274642</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06084135924996916</v>
+        <v>0.06019982960786395</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>168</v>
@@ -9765,19 +9765,19 @@
         <v>122274</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>105777</v>
+        <v>103372</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>141470</v>
+        <v>142172</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04870955777799556</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04213762435903921</v>
+        <v>0.0411795318941473</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05635648313049531</v>
+        <v>0.05663612666449995</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>278</v>
@@ -9786,19 +9786,19 @@
         <v>247628</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>220310</v>
+        <v>220177</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>278701</v>
+        <v>276819</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04945904315744228</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04400274638912408</v>
+        <v>0.0439762135440484</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05566532161258277</v>
+        <v>0.05528937366921447</v>
       </c>
     </row>
     <row r="30">
@@ -9815,19 +9815,19 @@
         <v>203110</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>175787</v>
+        <v>172950</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>240711</v>
+        <v>240358</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08135914078717434</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07041457523407796</v>
+        <v>0.06927788529433998</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09642084534152896</v>
+        <v>0.09627963017057359</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>324</v>
@@ -9836,19 +9836,19 @@
         <v>263203</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>238164</v>
+        <v>235638</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>293174</v>
+        <v>292699</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1048504124378261</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09487599186030587</v>
+        <v>0.0938695724934392</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1167898918696763</v>
+        <v>0.1166004327254214</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>479</v>
@@ -9857,19 +9857,19 @@
         <v>466313</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>424545</v>
+        <v>425566</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>510161</v>
+        <v>511192</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.09313717371905335</v>
+        <v>0.09313717371905336</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08479477458772816</v>
+        <v>0.08499867209184682</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1018949974818125</v>
+        <v>0.1021008871360278</v>
       </c>
     </row>
     <row r="31">
@@ -9886,19 +9886,19 @@
         <v>632586</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>582927</v>
+        <v>587506</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>679630</v>
+        <v>684786</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.2533929796913669</v>
+        <v>0.2533929796913668</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.233501251273198</v>
+        <v>0.2353356225634965</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2722373400494241</v>
+        <v>0.274302794672828</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>505</v>
@@ -9907,19 +9907,19 @@
         <v>417004</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>381613</v>
+        <v>384612</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>452090</v>
+        <v>455172</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.1661189530894587</v>
+        <v>0.1661189530894588</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1520206991836985</v>
+        <v>0.1532152541048005</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1800962228155985</v>
+        <v>0.1813240250090823</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1017</v>
@@ -9928,19 +9928,19 @@
         <v>1049590</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>991489</v>
+        <v>990182</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1112343</v>
+        <v>1109441</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2096356056887364</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1980312031804011</v>
+        <v>0.1977701537038545</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.222169522721658</v>
+        <v>0.2215898783362141</v>
       </c>
     </row>
     <row r="32">
@@ -9957,19 +9957,19 @@
         <v>38837</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>26976</v>
+        <v>26882</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>56673</v>
+        <v>55932</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.01555674556742525</v>
+        <v>0.01555674556742524</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01080571643509339</v>
+        <v>0.01076814276711922</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02270142900460318</v>
+        <v>0.02240453029681256</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>41</v>
@@ -9978,19 +9978,19 @@
         <v>25979</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>18565</v>
+        <v>19057</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>35297</v>
+        <v>35485</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.01034914973204674</v>
+        <v>0.01034914973204673</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.007395456138938735</v>
+        <v>0.007591651196321535</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01406118853740053</v>
+        <v>0.01413585354552269</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>78</v>
@@ -9999,19 +9999,19 @@
         <v>64816</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>51268</v>
+        <v>51813</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>83761</v>
+        <v>84986</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01294576578918483</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01023976407036213</v>
+        <v>0.01034865221897903</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01672976141307153</v>
+        <v>0.01697425396156262</v>
       </c>
     </row>
     <row r="33">
@@ -10031,7 +10031,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>11776</v>
+        <v>10325</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.001219528201417148</v>
@@ -10040,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.004717156956663577</v>
+        <v>0.004135986407172459</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>0</v>
@@ -10065,7 +10065,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>10181</v>
+        <v>11092</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.0006080822341126133</v>
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.002033443214616997</v>
+        <v>0.002215515486543024</v>
       </c>
     </row>
     <row r="34">
@@ -10091,19 +10091,19 @@
         <v>1456964</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1404934</v>
+        <v>1397171</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1512889</v>
+        <v>1508983</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5836117457784827</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5627702738679292</v>
+        <v>0.5596605163110917</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6060134692146388</v>
+        <v>0.604448954505366</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2625</v>
@@ -10112,19 +10112,19 @@
         <v>1637033</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1590466</v>
+        <v>1594361</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1675584</v>
+        <v>1681788</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6521340314953994</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.6335834655594825</v>
+        <v>0.6351352102192412</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6674914347524386</v>
+        <v>0.6699629065265614</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4324</v>
@@ -10133,19 +10133,19 @@
         <v>3093998</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3020764</v>
+        <v>3025457</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3156231</v>
+        <v>3166909</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6179673885782235</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.6033403740622858</v>
+        <v>0.6042776725376104</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6303972480630127</v>
+        <v>0.6325300794625662</v>
       </c>
     </row>
     <row r="35">
